--- a/nevergiveup/Excel/Voice_音效表.xlsx
+++ b/nevergiveup/Excel/Voice_音效表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Projects\invinciblelegend\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A689C49-F88F-4B0F-9AD9-9224D93332D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,27 +22,23 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0=单端
@@ -56,14 +46,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0=单端
@@ -71,14 +60,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0=单端
@@ -91,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>int</t>
   </si>
@@ -217,13 +205,58 @@
   </si>
   <si>
     <t>出现抽卡结果时播放1次音效，关闭抽卡结果界面时停止播放</t>
+  </si>
+  <si>
+    <t>购买龙娘卡片</t>
+  </si>
+  <si>
+    <t>装备龙娘卡片</t>
+  </si>
+  <si>
+    <t>卸下龙娘卡片</t>
+  </si>
+  <si>
+    <t>天赋树解锁</t>
+  </si>
+  <si>
+    <t>部署防御塔</t>
+  </si>
+  <si>
+    <t>升级防御塔</t>
+  </si>
+  <si>
+    <t>卖出防御塔</t>
+  </si>
+  <si>
+    <t>通关</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>通关后点继续</t>
+  </si>
+  <si>
+    <t>开始游戏按钮</t>
+  </si>
+  <si>
+    <t>切换难度</t>
+  </si>
+  <si>
+    <t>领取任务奖励</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -234,7 +267,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -242,31 +274,173 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +453,194 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -303,9 +663,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -323,69 +925,116 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF8CBAD"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00F8CBAD"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -399,9 +1048,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -450,7 +1096,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -483,26 +1129,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -535,23 +1164,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -693,40 +1305,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.3727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3727272727273" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1272727272727" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6272727272727" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.2545454545455" style="1" customWidth="1"/>
+    <col min="7" max="8" width="25.2545454545455" style="1" customWidth="1"/>
     <col min="9" max="977" width="9" style="1"/>
-    <col min="978" max="984" width="11.625" style="1" customWidth="1"/>
+    <col min="978" max="984" width="11.6272727272727" style="1" customWidth="1"/>
     <col min="985" max="985" width="9" style="1"/>
-    <col min="986" max="996" width="11.625" style="1" customWidth="1"/>
+    <col min="986" max="996" width="11.6272727272727" style="1" customWidth="1"/>
     <col min="997" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="16.15" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -755,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="16.15" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -784,7 +1391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="16.15" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -813,7 +1420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -842,7 +1449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
@@ -871,7 +1478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
@@ -900,7 +1507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
@@ -929,7 +1536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
@@ -958,7 +1565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
@@ -987,7 +1594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
@@ -1016,7 +1623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
@@ -1045,7 +1652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
@@ -1074,7 +1681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
@@ -1103,7 +1710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="15" customHeight="1" spans="1:9">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
@@ -1132,7 +1739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
@@ -1161,7 +1768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
@@ -1190,7 +1797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
@@ -1219,43 +1826,372 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C20" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3">
+        <v>136198</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3">
+        <v>203458</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1">
+        <v>203458</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1">
+        <v>134424</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1">
+        <v>204675</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1">
+        <v>169179</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1">
+        <v>136198</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:8">
+      <c r="A26" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1">
+        <v>169139</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:8">
+      <c r="A27" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1">
+        <v>169180</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="1:8">
+      <c r="A28" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1">
+        <v>199679</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:8">
+      <c r="A29" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="1">
+        <v>206005</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:8">
+      <c r="A30" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1">
+        <v>204923</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="1:8">
+      <c r="A31" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="1">
+        <v>169189</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1"/>
+    <row r="33" ht="15" customHeight="1"/>
+    <row r="34" ht="15" customHeight="1"/>
+    <row r="35" ht="15" customHeight="1"/>
+    <row r="36" ht="15" customHeight="1" spans="3:3">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="15" customHeight="1" spans="3:3">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="15" customHeight="1" spans="3:3">
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15" customHeight="1"/>
+    <row r="40" ht="15" customHeight="1"/>
+    <row r="41" ht="15" customHeight="1"/>
+    <row r="42" ht="15" customHeight="1"/>
+    <row r="43" ht="15" customHeight="1"/>
+    <row r="44" ht="15" customHeight="1"/>
+    <row r="45" ht="15" customHeight="1"/>
+    <row r="46" ht="15" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/Voice_音效表.xlsx
+++ b/nevergiveup/Excel/Voice_音效表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PGE\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7F355D-F008-4A87-8C8E-CE48A2717088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="37284" yWindow="2352" windowWidth="23040" windowHeight="12120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -249,14 +255,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,165 +282,8 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,194 +296,8 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -663,251 +320,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -925,57 +340,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1048,6 +416,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1305,35 +676,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="27.3727272727273" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3727272727273" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6272727272727" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.2545454545455" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.2545454545455" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="25.21875" style="1" customWidth="1"/>
     <col min="9" max="977" width="9" style="1"/>
-    <col min="978" max="984" width="11.6272727272727" style="1" customWidth="1"/>
+    <col min="978" max="984" width="11.6640625" style="1" customWidth="1"/>
     <col min="985" max="985" width="9" style="1"/>
-    <col min="986" max="996" width="11.6272727272727" style="1" customWidth="1"/>
+    <col min="986" max="996" width="11.6640625" style="1" customWidth="1"/>
     <col min="997" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.15" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="16.2" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1362,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="16.15" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="16.2" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1391,7 +762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="16.2" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1710,7 +1081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:9">
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
@@ -1834,7 +1205,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="3">
-        <v>136198</v>
+        <v>434722</v>
       </c>
       <c r="D19" s="1">
         <v>0.5</v>
@@ -1855,7 +1226,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>2002</v>
       </c>
@@ -1863,7 +1234,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="3">
-        <v>203458</v>
+        <v>434730</v>
       </c>
       <c r="D20" s="1">
         <v>0.5</v>
@@ -1881,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>2003</v>
       </c>
@@ -1889,7 +1260,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="1">
-        <v>203458</v>
+        <v>434724</v>
       </c>
       <c r="D21" s="1">
         <v>0.5</v>
@@ -1907,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>2004</v>
       </c>
@@ -1915,7 +1286,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="1">
-        <v>134424</v>
+        <v>434731</v>
       </c>
       <c r="D22" s="1">
         <v>0.5</v>
@@ -1933,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>2005</v>
       </c>
@@ -1941,7 +1312,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="1">
-        <v>204675</v>
+        <v>434732</v>
       </c>
       <c r="D23" s="1">
         <v>0.5</v>
@@ -1959,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>2006</v>
       </c>
@@ -1967,7 +1338,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="1">
-        <v>169179</v>
+        <v>434719</v>
       </c>
       <c r="D24" s="1">
         <v>0.5</v>
@@ -1985,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>2007</v>
       </c>
@@ -1993,7 +1364,7 @@
         <v>48</v>
       </c>
       <c r="C25" s="1">
-        <v>136198</v>
+        <v>434723</v>
       </c>
       <c r="D25" s="1">
         <v>0.5</v>
@@ -2011,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:8">
+    <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="1">
         <v>2008</v>
       </c>
@@ -2019,7 +1390,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="1">
-        <v>169139</v>
+        <v>434727</v>
       </c>
       <c r="D26" s="1">
         <v>0.5</v>
@@ -2037,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:8">
+    <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="1">
         <v>2009</v>
       </c>
@@ -2045,7 +1416,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="1">
-        <v>169180</v>
+        <v>434729</v>
       </c>
       <c r="D27" s="1">
         <v>0.5</v>
@@ -2063,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:8">
+    <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="1">
         <v>2010</v>
       </c>
@@ -2071,7 +1442,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="1">
-        <v>199679</v>
+        <v>434726</v>
       </c>
       <c r="D28" s="1">
         <v>0.5</v>
@@ -2089,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:8">
+    <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="1">
         <v>2011</v>
       </c>
@@ -2097,7 +1468,7 @@
         <v>52</v>
       </c>
       <c r="C29" s="1">
-        <v>206005</v>
+        <v>434725</v>
       </c>
       <c r="D29" s="1">
         <v>0.5</v>
@@ -2115,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:8">
+    <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="1">
         <v>2012</v>
       </c>
@@ -2123,7 +1494,7 @@
         <v>53</v>
       </c>
       <c r="C30" s="1">
-        <v>204923</v>
+        <v>434718</v>
       </c>
       <c r="D30" s="1">
         <v>0.5</v>
@@ -2141,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:8">
+    <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="1">
         <v>2013</v>
       </c>
@@ -2149,7 +1520,7 @@
         <v>54</v>
       </c>
       <c r="C31" s="1">
-        <v>169189</v>
+        <v>434728</v>
       </c>
       <c r="D31" s="1">
         <v>0.5</v>
@@ -2167,31 +1538,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1"/>
-    <row r="33" ht="15" customHeight="1"/>
-    <row r="34" ht="15" customHeight="1"/>
-    <row r="35" ht="15" customHeight="1"/>
-    <row r="36" ht="15" customHeight="1" spans="3:3">
+    <row r="32" spans="1:9" ht="15" customHeight="1"/>
+    <row r="33" spans="3:3" ht="15" customHeight="1"/>
+    <row r="34" spans="3:3" ht="15" customHeight="1"/>
+    <row r="35" spans="3:3" ht="15" customHeight="1"/>
+    <row r="36" spans="3:3" ht="15" customHeight="1">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="3:3">
+    <row r="37" spans="3:3" ht="15" customHeight="1">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="3:3">
+    <row r="38" spans="3:3" ht="15" customHeight="1">
       <c r="C38" s="3"/>
     </row>
-    <row r="39" ht="15" customHeight="1"/>
-    <row r="40" ht="15" customHeight="1"/>
-    <row r="41" ht="15" customHeight="1"/>
-    <row r="42" ht="15" customHeight="1"/>
-    <row r="43" ht="15" customHeight="1"/>
-    <row r="44" ht="15" customHeight="1"/>
-    <row r="45" ht="15" customHeight="1"/>
-    <row r="46" ht="15" customHeight="1"/>
+    <row r="39" spans="3:3" ht="15" customHeight="1"/>
+    <row r="40" spans="3:3" ht="15" customHeight="1"/>
+    <row r="41" spans="3:3" ht="15" customHeight="1"/>
+    <row r="42" spans="3:3" ht="15" customHeight="1"/>
+    <row r="43" spans="3:3" ht="15" customHeight="1"/>
+    <row r="44" spans="3:3" ht="15" customHeight="1"/>
+    <row r="45" spans="3:3" ht="15" customHeight="1"/>
+    <row r="46" spans="3:3" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/Voice_音效表.xlsx
+++ b/nevergiveup/Excel/Voice_音效表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PGE\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7F355D-F008-4A87-8C8E-CE48A2717088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37284" yWindow="2352" windowWidth="23040" windowHeight="12120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -255,8 +249,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,8 +282,165 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +453,194 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -320,9 +663,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -340,10 +925,57 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -416,9 +1048,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -676,35 +1305,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.3727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3727272727273" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1272727272727" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6272727272727" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.2545454545455" style="1" customWidth="1"/>
+    <col min="7" max="8" width="25.2545454545455" style="1" customWidth="1"/>
     <col min="9" max="977" width="9" style="1"/>
-    <col min="978" max="984" width="11.6640625" style="1" customWidth="1"/>
+    <col min="978" max="984" width="11.6272727272727" style="1" customWidth="1"/>
     <col min="985" max="985" width="9" style="1"/>
-    <col min="986" max="996" width="11.6640625" style="1" customWidth="1"/>
+    <col min="986" max="996" width="11.6272727272727" style="1" customWidth="1"/>
     <col min="997" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" customHeight="1">
+    <row r="1" ht="16.15" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -733,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.2" customHeight="1">
+    <row r="2" ht="16.15" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -762,7 +1391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.2" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1081,7 +1710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:9">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
@@ -1205,7 +1834,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="3">
-        <v>434722</v>
+        <v>136198</v>
       </c>
       <c r="D19" s="1">
         <v>0.5</v>
@@ -1226,7 +1855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>2002</v>
       </c>
@@ -1234,7 +1863,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="3">
-        <v>434730</v>
+        <v>203458</v>
       </c>
       <c r="D20" s="1">
         <v>0.5</v>
@@ -1252,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>2003</v>
       </c>
@@ -1260,7 +1889,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="1">
-        <v>434724</v>
+        <v>203458</v>
       </c>
       <c r="D21" s="1">
         <v>0.5</v>
@@ -1278,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>2004</v>
       </c>
@@ -1286,7 +1915,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="1">
-        <v>434731</v>
+        <v>134424</v>
       </c>
       <c r="D22" s="1">
         <v>0.5</v>
@@ -1304,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>2005</v>
       </c>
@@ -1312,7 +1941,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="1">
-        <v>434732</v>
+        <v>204675</v>
       </c>
       <c r="D23" s="1">
         <v>0.5</v>
@@ -1330,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>2006</v>
       </c>
@@ -1338,7 +1967,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="1">
-        <v>434719</v>
+        <v>169179</v>
       </c>
       <c r="D24" s="1">
         <v>0.5</v>
@@ -1356,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>2007</v>
       </c>
@@ -1364,7 +1993,7 @@
         <v>48</v>
       </c>
       <c r="C25" s="1">
-        <v>434723</v>
+        <v>136198</v>
       </c>
       <c r="D25" s="1">
         <v>0.5</v>
@@ -1382,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1" spans="1:8">
       <c r="A26" s="1">
         <v>2008</v>
       </c>
@@ -1390,7 +2019,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="1">
-        <v>434727</v>
+        <v>169139</v>
       </c>
       <c r="D26" s="1">
         <v>0.5</v>
@@ -1408,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="1:8">
       <c r="A27" s="1">
         <v>2009</v>
       </c>
@@ -1416,7 +2045,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="1">
-        <v>434729</v>
+        <v>169180</v>
       </c>
       <c r="D27" s="1">
         <v>0.5</v>
@@ -1434,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1">
+    <row r="28" ht="15" customHeight="1" spans="1:8">
       <c r="A28" s="1">
         <v>2010</v>
       </c>
@@ -1442,7 +2071,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="1">
-        <v>434726</v>
+        <v>199679</v>
       </c>
       <c r="D28" s="1">
         <v>0.5</v>
@@ -1460,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1">
+    <row r="29" ht="15" customHeight="1" spans="1:8">
       <c r="A29" s="1">
         <v>2011</v>
       </c>
@@ -1468,7 +2097,7 @@
         <v>52</v>
       </c>
       <c r="C29" s="1">
-        <v>434725</v>
+        <v>206005</v>
       </c>
       <c r="D29" s="1">
         <v>0.5</v>
@@ -1486,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1">
+    <row r="30" ht="15" customHeight="1" spans="1:8">
       <c r="A30" s="1">
         <v>2012</v>
       </c>
@@ -1494,7 +2123,7 @@
         <v>53</v>
       </c>
       <c r="C30" s="1">
-        <v>434718</v>
+        <v>204923</v>
       </c>
       <c r="D30" s="1">
         <v>0.5</v>
@@ -1512,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1">
+    <row r="31" ht="15" customHeight="1" spans="1:8">
       <c r="A31" s="1">
         <v>2013</v>
       </c>
@@ -1520,7 +2149,7 @@
         <v>54</v>
       </c>
       <c r="C31" s="1">
-        <v>434728</v>
+        <v>169189</v>
       </c>
       <c r="D31" s="1">
         <v>0.5</v>
@@ -1538,30 +2167,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1"/>
-    <row r="33" spans="3:3" ht="15" customHeight="1"/>
-    <row r="34" spans="3:3" ht="15" customHeight="1"/>
-    <row r="35" spans="3:3" ht="15" customHeight="1"/>
-    <row r="36" spans="3:3" ht="15" customHeight="1">
+    <row r="32" ht="15" customHeight="1"/>
+    <row r="33" ht="15" customHeight="1"/>
+    <row r="34" ht="15" customHeight="1"/>
+    <row r="35" ht="15" customHeight="1"/>
+    <row r="36" ht="15" customHeight="1" spans="3:3">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="3:3" ht="15" customHeight="1">
+    <row r="37" ht="15" customHeight="1" spans="3:3">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="3:3" ht="15" customHeight="1">
+    <row r="38" ht="15" customHeight="1" spans="3:3">
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="3:3" ht="15" customHeight="1"/>
-    <row r="40" spans="3:3" ht="15" customHeight="1"/>
-    <row r="41" spans="3:3" ht="15" customHeight="1"/>
-    <row r="42" spans="3:3" ht="15" customHeight="1"/>
-    <row r="43" spans="3:3" ht="15" customHeight="1"/>
-    <row r="44" spans="3:3" ht="15" customHeight="1"/>
-    <row r="45" spans="3:3" ht="15" customHeight="1"/>
-    <row r="46" spans="3:3" ht="15" customHeight="1"/>
+    <row r="39" ht="15" customHeight="1"/>
+    <row r="40" ht="15" customHeight="1"/>
+    <row r="41" ht="15" customHeight="1"/>
+    <row r="42" ht="15" customHeight="1"/>
+    <row r="43" ht="15" customHeight="1"/>
+    <row r="44" ht="15" customHeight="1"/>
+    <row r="45" ht="15" customHeight="1"/>
+    <row r="46" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/Voice_音效表.xlsx
+++ b/nevergiveup/Excel/Voice_音效表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PGE\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7F355D-F008-4A87-8C8E-CE48A2717088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37284" yWindow="2352" windowWidth="23040" windowHeight="12120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>int</t>
   </si>
@@ -250,13 +244,22 @@
   </si>
   <si>
     <t>领取任务奖励</t>
+  </si>
+  <si>
+    <t>怪物冲进基地</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,8 +285,165 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +456,194 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -320,9 +666,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -340,10 +928,57 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -416,9 +1051,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -676,35 +1308,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.3363636363636" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3363636363636" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1090909090909" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6636363636364" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="7" max="8" width="25.2181818181818" style="1" customWidth="1"/>
     <col min="9" max="977" width="9" style="1"/>
-    <col min="978" max="984" width="11.6640625" style="1" customWidth="1"/>
+    <col min="978" max="984" width="11.6636363636364" style="1" customWidth="1"/>
     <col min="985" max="985" width="9" style="1"/>
-    <col min="986" max="996" width="11.6640625" style="1" customWidth="1"/>
+    <col min="986" max="996" width="11.6636363636364" style="1" customWidth="1"/>
     <col min="997" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" customHeight="1">
+    <row r="1" ht="16.2" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -733,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.2" customHeight="1">
+    <row r="2" ht="16.2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -762,7 +1394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.2" customHeight="1">
+    <row r="3" ht="16.2" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1081,7 +1713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:9">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
@@ -1226,7 +1858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>2002</v>
       </c>
@@ -1252,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>2003</v>
       </c>
@@ -1278,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>2004</v>
       </c>
@@ -1304,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>2005</v>
       </c>
@@ -1330,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>2006</v>
       </c>
@@ -1356,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>2007</v>
       </c>
@@ -1382,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1" spans="1:8">
       <c r="A26" s="1">
         <v>2008</v>
       </c>
@@ -1408,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1">
+    <row r="27" ht="15" customHeight="1" spans="1:8">
       <c r="A27" s="1">
         <v>2009</v>
       </c>
@@ -1434,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1">
+    <row r="28" ht="15" customHeight="1" spans="1:8">
       <c r="A28" s="1">
         <v>2010</v>
       </c>
@@ -1460,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1">
+    <row r="29" ht="15" customHeight="1" spans="1:8">
       <c r="A29" s="1">
         <v>2011</v>
       </c>
@@ -1486,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1">
+    <row r="30" ht="15" customHeight="1" spans="1:8">
       <c r="A30" s="1">
         <v>2012</v>
       </c>
@@ -1512,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1">
+    <row r="31" ht="15" customHeight="1" spans="1:8">
       <c r="A31" s="1">
         <v>2013</v>
       </c>
@@ -1538,30 +2170,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1"/>
-    <row r="33" spans="3:3" ht="15" customHeight="1"/>
-    <row r="34" spans="3:3" ht="15" customHeight="1"/>
-    <row r="35" spans="3:3" ht="15" customHeight="1"/>
-    <row r="36" spans="3:3" ht="15" customHeight="1">
+    <row r="32" ht="15" customHeight="1" spans="1:8">
+      <c r="A32" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1">
+        <v>199436</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1"/>
+    <row r="34" ht="15" customHeight="1"/>
+    <row r="35" ht="15" customHeight="1"/>
+    <row r="36" ht="15" customHeight="1" spans="3:3">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="3:3" ht="15" customHeight="1">
+    <row r="37" ht="15" customHeight="1" spans="3:3">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="3:3" ht="15" customHeight="1">
+    <row r="38" ht="15" customHeight="1" spans="3:3">
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="3:3" ht="15" customHeight="1"/>
-    <row r="40" spans="3:3" ht="15" customHeight="1"/>
-    <row r="41" spans="3:3" ht="15" customHeight="1"/>
-    <row r="42" spans="3:3" ht="15" customHeight="1"/>
-    <row r="43" spans="3:3" ht="15" customHeight="1"/>
-    <row r="44" spans="3:3" ht="15" customHeight="1"/>
-    <row r="45" spans="3:3" ht="15" customHeight="1"/>
-    <row r="46" spans="3:3" ht="15" customHeight="1"/>
+    <row r="39" ht="15" customHeight="1"/>
+    <row r="40" ht="15" customHeight="1"/>
+    <row r="41" ht="15" customHeight="1"/>
+    <row r="42" ht="15" customHeight="1"/>
+    <row r="43" ht="15" customHeight="1"/>
+    <row r="44" ht="15" customHeight="1"/>
+    <row r="45" ht="15" customHeight="1"/>
+    <row r="46" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/Voice_音效表.xlsx
+++ b/nevergiveup/Excel/Voice_音效表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0809D6E9-A5AC-4D5C-83FC-5429A67C9266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,18 +31,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0=单端
@@ -46,13 +51,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0=单端
@@ -60,13 +66,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0=单端
@@ -252,14 +259,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -270,6 +271,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -277,173 +279,31 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,194 +316,8 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -666,251 +340,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -928,57 +360,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1051,6 +436,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1308,35 +696,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="27.3363636363636" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3363636363636" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1090909090909" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6636363636364" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.2181818181818" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.2181818181818" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="25.25" style="1" customWidth="1"/>
     <col min="9" max="977" width="9" style="1"/>
-    <col min="978" max="984" width="11.6636363636364" style="1" customWidth="1"/>
+    <col min="978" max="984" width="11.625" style="1" customWidth="1"/>
     <col min="985" max="985" width="9" style="1"/>
-    <col min="986" max="996" width="11.6636363636364" style="1" customWidth="1"/>
+    <col min="986" max="996" width="11.625" style="1" customWidth="1"/>
     <col min="997" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="16.2" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.2" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1423,7 +811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -1452,7 +840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
@@ -1481,7 +869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
@@ -1510,7 +898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
@@ -1539,7 +927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
@@ -1568,7 +956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
@@ -1597,7 +985,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
@@ -1626,7 +1014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
@@ -1655,7 +1043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
@@ -1684,7 +1072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
@@ -1713,7 +1101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:9">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
@@ -1742,7 +1130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
@@ -1771,7 +1159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
@@ -1800,7 +1188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
@@ -1829,7 +1217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>2001</v>
       </c>
@@ -1837,7 +1225,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="3">
-        <v>434722</v>
+        <v>448366</v>
       </c>
       <c r="D19" s="1">
         <v>0.5</v>
@@ -1858,7 +1246,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>2002</v>
       </c>
@@ -1884,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>2003</v>
       </c>
@@ -1910,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>2004</v>
       </c>
@@ -1936,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>2005</v>
       </c>
@@ -1962,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>2006</v>
       </c>
@@ -1988,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>2007</v>
       </c>
@@ -2014,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:8">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>2008</v>
       </c>
@@ -2040,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:8">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>2009</v>
       </c>
@@ -2066,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:8">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>2010</v>
       </c>
@@ -2092,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:8">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>2011</v>
       </c>
@@ -2118,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:8">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>2012</v>
       </c>
@@ -2144,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:8">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>2013</v>
       </c>
@@ -2170,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:8">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>2014</v>
       </c>
@@ -2196,30 +1584,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1"/>
-    <row r="34" ht="15" customHeight="1"/>
-    <row r="35" ht="15" customHeight="1"/>
-    <row r="36" ht="15" customHeight="1" spans="3:3">
+    <row r="33" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="3:3">
+    <row r="37" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="3:3">
+    <row r="38" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="3"/>
     </row>
-    <row r="39" ht="15" customHeight="1"/>
-    <row r="40" ht="15" customHeight="1"/>
-    <row r="41" ht="15" customHeight="1"/>
-    <row r="42" ht="15" customHeight="1"/>
-    <row r="43" ht="15" customHeight="1"/>
-    <row r="44" ht="15" customHeight="1"/>
-    <row r="45" ht="15" customHeight="1"/>
-    <row r="46" ht="15" customHeight="1"/>
+    <row r="39" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/Voice_音效表.xlsx
+++ b/nevergiveup/Excel/Voice_音效表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0809D6E9-A5AC-4D5C-83FC-5429A67C9266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92546A55-1AAF-40F6-86C0-C6CDDE529980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -705,7 +705,7 @@
   <dimension ref="A1:AMJ46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1569,7 +1569,7 @@
         <v>199436</v>
       </c>
       <c r="D32" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>

--- a/nevergiveup/Excel/Voice_音效表.xlsx
+++ b/nevergiveup/Excel/Voice_音效表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92546A55-1AAF-40F6-86C0-C6CDDE529980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC42E142-AA80-4263-B521-AED916F79357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1569,7 +1569,7 @@
         <v>199436</v>
       </c>
       <c r="D32" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
